--- a/Dataset/Authors/PLAUT_Persa.xlsx
+++ b/Dataset/Authors/PLAUT_Persa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D73DBDC-7F16-4475-A81A-4E82D2BC1FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12988045-9DD5-45AA-8609-47703AE0E67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>angiportum</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>PLAUT. Pers.</t>
+  </si>
+  <si>
+    <t>accipiter</t>
   </si>
 </sst>
 </file>
@@ -552,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -609,23 +612,23 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -633,23 +636,23 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -657,7 +660,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -665,23 +668,23 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -689,7 +692,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -697,7 +700,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -705,23 +708,23 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -729,7 +732,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -737,23 +740,23 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
@@ -761,7 +764,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
@@ -769,23 +772,23 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
@@ -793,7 +796,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
@@ -801,7 +804,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
@@ -809,23 +812,23 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
@@ -833,23 +836,23 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
@@ -857,7 +860,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
@@ -873,7 +876,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="1">
         <v>1</v>
@@ -881,7 +884,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
@@ -889,7 +892,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
@@ -897,7 +900,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
@@ -905,7 +908,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="1">
         <v>1</v>
@@ -913,7 +916,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="1">
         <v>1</v>
@@ -921,13 +924,24 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B46" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B46">
+    <sortCondition ref="A46"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>